--- a/protocol_20150330.xlsx
+++ b/protocol_20150330.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bransonk\Documents\FlyBubbleParamFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="6640" windowWidth="28400" windowHeight="15500"/>
+    <workbookView xWindow="12885" yWindow="6645" windowWidth="28395" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,17 +432,17 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,16 +491,16 @@
         <v>29000</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,7 +529,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,7 +558,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -574,7 +587,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -603,7 +616,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -632,7 +645,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -661,7 +674,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -690,7 +703,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -736,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -754,7 +767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
